--- a/AutomationFrameworkWDTestNGJAVA/src/main/resources/unicodeTech/testInformation/TestSuite.xlsx
+++ b/AutomationFrameworkWDTestNGJAVA/src/main/resources/unicodeTech/testInformation/TestSuite.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj\git\automationframework\AutomationFrameworkWDTestNGJAVA\src\main\resources\unicodeTech\testInformation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="14355" windowHeight="7245"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>TestSuiteID</t>
   </si>
@@ -49,9 +54,6 @@
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
 </sst>
 </file>
@@ -130,6 +132,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -177,7 +182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,7 +217,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,7 +480,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
